--- a/data/trans_camb/P21_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.3501582664295427</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.535564337380167</v>
+        <v>2.53556433738017</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1073022967562297</v>
+        <v>0.1798669288345183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.212955184717488</v>
+        <v>-4.312254524695141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2035398595393539</v>
+        <v>-0.2247444477173791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.295400313808944</v>
+        <v>3.573351086795248</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.867236760168478</v>
+        <v>-3.093284475437778</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.599503804006164</v>
+        <v>-2.534500329362558</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.59646084188861</v>
+        <v>2.625743479079302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.743853593009499</v>
+        <v>-2.767457364908195</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4295232149389716</v>
+        <v>-0.7427977857935746</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.170188407309244</v>
+        <v>8.300154202080865</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.606402954579907</v>
+        <v>3.419527041468268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.542433348195972</v>
+        <v>8.081950323737583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.52340244127901</v>
+        <v>12.76979136043845</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.528395863855227</v>
+        <v>5.830391137831546</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.946643731621291</v>
+        <v>5.377381340383838</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.849762079232582</v>
+        <v>8.897441023563523</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.266077550798893</v>
+        <v>3.271076022834584</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.273653483688396</v>
+        <v>5.289007143301903</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.01943596462147743</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1407396125737814</v>
+        <v>0.1407396125737815</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.007768143456867993</v>
+        <v>0.009209517436430028</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.233397914320888</v>
+        <v>-0.2464512607756739</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01411443690737569</v>
+        <v>-0.01089970892171046</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1490881242365449</v>
+        <v>0.1603284607099776</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1313712134466747</v>
+        <v>-0.1414485272725321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1204968646410173</v>
+        <v>-0.1139170943470139</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1309649219758807</v>
+        <v>0.1342239810654806</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1446867273106751</v>
+        <v>-0.1416338268801424</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.02189645580063097</v>
+        <v>-0.03850781023014413</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5895615390712741</v>
+        <v>0.5769856079348417</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2586335139467304</v>
+        <v>0.2395561293320133</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5727639131961949</v>
+        <v>0.571580838606116</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7125386239796465</v>
+        <v>0.7109134449810729</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3018430456544742</v>
+        <v>0.3330309559903267</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2791871291127453</v>
+        <v>0.3027924671241273</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5449597628868526</v>
+        <v>0.539967322325579</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1988778284150249</v>
+        <v>0.1991010051170389</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3257398079205443</v>
+        <v>0.3155774846718007</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-8.421473707228259</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.930089898192619</v>
+        <v>-4.930089898192611</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.443804305311608</v>
@@ -878,7 +878,7 @@
         <v>-5.321715272333385</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.002025642983551</v>
+        <v>-1.002025642983548</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2232257521559261</v>
+        <v>-1.257574054306089</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.587801017349222</v>
+        <v>-5.954321864512633</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.002070625640992</v>
+        <v>-0.5901789363096147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.138933039708928</v>
+        <v>-4.396322846816084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.41137817566178</v>
+        <v>-12.5066953888804</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.863064368906805</v>
+        <v>-8.220278162164986</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.557886938537617</v>
+        <v>-1.502465459921634</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.26500319112848</v>
+        <v>-7.994692954986794</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.853523964844922</v>
+        <v>-3.73835384900622</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.260813207325893</v>
+        <v>6.9242303739267</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.520180739170358</v>
+        <v>1.095291451055216</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.777722221120325</v>
+        <v>6.92803011235056</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.941143097411083</v>
+        <v>4.094894757524728</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.483673601076861</v>
+        <v>-4.300566806831862</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.279444159809895</v>
+        <v>-0.7165993313994309</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.229607172511523</v>
+        <v>4.082749584765737</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.881234623247455</v>
+        <v>-2.689763101376871</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.620990423629119</v>
+        <v>1.87617087929547</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.2872271998405044</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1681482322036349</v>
+        <v>-0.1681482322036346</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.05922465790471456</v>
@@ -983,7 +983,7 @@
         <v>-0.2182960428298604</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.04110295675053028</v>
+        <v>-0.04110295675053016</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.008840103327787646</v>
+        <v>-0.05579489339402648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.265891658105756</v>
+        <v>-0.2811372920235434</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05908522892829113</v>
+        <v>-0.03077456943770046</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1318855593688427</v>
+        <v>-0.1394748485436776</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3889713014396963</v>
+        <v>-0.3911918665399517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2815684372240584</v>
+        <v>-0.2637754534657899</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06046798702983225</v>
+        <v>-0.05876518165778479</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3189087163552798</v>
+        <v>-0.31129019078422</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1479517569133169</v>
+        <v>-0.1426273786678647</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4110188172359636</v>
+        <v>0.3940451845690666</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08362166285991794</v>
+        <v>0.06401051178773347</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3842454768034434</v>
+        <v>0.3914770172468209</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1461019987054089</v>
+        <v>0.1494317510501639</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1624708001033834</v>
+        <v>-0.1550387839094629</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04604070970069947</v>
+        <v>-0.02758350833512616</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1830484568550457</v>
+        <v>0.1783628319894732</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1243868715623876</v>
+        <v>-0.1107394926333149</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07085053040594221</v>
+        <v>0.0815474018594934</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.310024095208293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8024584109523891</v>
+        <v>0.8024584109523919</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.424431929985287</v>
@@ -1092,7 +1092,7 @@
         <v>-3.667025631674059</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.9730716750185137</v>
+        <v>0.9730716750185164</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.787405033148828</v>
+        <v>2.029221211007686</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.45934956351159</v>
+        <v>-5.185464946215567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.257010208275267</v>
+        <v>-3.392310268237338</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.647219056254698</v>
+        <v>2.443423870931244</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.67917151999825</v>
+        <v>-10.73277898755819</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.427176549147792</v>
+        <v>-3.6498209881672</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.726998695055983</v>
+        <v>3.669074376267309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.114849943947969</v>
+        <v>-6.65211868225501</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.954743992831471</v>
+        <v>-1.854017582812139</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.53333758202505</v>
+        <v>10.46965726609636</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.867219862047147</v>
+        <v>2.622441539984289</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.704695458196658</v>
+        <v>5.156599976782171</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.10626420428292</v>
+        <v>12.25043330322794</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.709616334215669</v>
+        <v>-1.725306301499415</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.337680030442584</v>
+        <v>5.371457811050413</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.21661267757505</v>
+        <v>10.24348283622635</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.7466207738370009</v>
+        <v>-0.3950930923620878</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.268449467455238</v>
+        <v>4.315851402001641</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.07188315271319236</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.04403219811869543</v>
+        <v>0.04403219811869558</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.287593065447132</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1664189012002958</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.04416045460576318</v>
+        <v>0.0441604546057633</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.083579295294243</v>
+        <v>0.09426647698092985</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2686541743534889</v>
+        <v>-0.2610588740547116</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.159162143207909</v>
+        <v>-0.17021259355584</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.09224884401451297</v>
+        <v>0.08273099272588817</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.375295511805305</v>
+        <v>-0.3831666891939838</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1194610866731568</v>
+        <v>-0.1281286162470898</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1555842465895775</v>
+        <v>0.1559034870220939</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.297315839878648</v>
+        <v>-0.2848489208611296</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.0828821871276296</v>
+        <v>-0.07915681737596028</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6734339861332161</v>
+        <v>0.6523076970677657</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1838383840823718</v>
+        <v>0.1631128960731507</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3689209450744443</v>
+        <v>0.3298671447625313</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5155046345478598</v>
+        <v>0.5260498912234609</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.07284665311218017</v>
+        <v>-0.07464426195701372</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2255998971202409</v>
+        <v>0.2251953529022943</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5188833208142484</v>
+        <v>0.5010691220577187</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.03589988092810461</v>
+        <v>-0.01915101278814902</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2068500900194801</v>
+        <v>0.2118524824779632</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.914224795328458</v>
+        <v>-1.716565972726796</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.333238130901481</v>
+        <v>-1.179318197830555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.099807673698942</v>
+        <v>2.529723930962299</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.671069444919316</v>
+        <v>-3.652203348848854</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.544961711632023</v>
+        <v>-1.741040406329625</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.031647889979541</v>
+        <v>1.897819981763538</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.553678843952387</v>
+        <v>-1.797370012692374</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.418933593795824</v>
+        <v>-0.4084753458421392</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.489126290836261</v>
+        <v>3.222684969132282</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.701960701031521</v>
+        <v>5.052581996539184</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.272229158809199</v>
+        <v>5.299524176258481</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.06531296692661</v>
+        <v>9.907497110764655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.726906894004611</v>
+        <v>3.666758495673122</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.84650874103107</v>
+        <v>5.658154213908116</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.121184807426033</v>
+        <v>8.54219654637825</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.096991422081823</v>
+        <v>3.189353463083559</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.783240595911739</v>
+        <v>4.725767159395068</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.108453547597104</v>
+        <v>8.198226995185372</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1195364644232144</v>
+        <v>-0.1089373562083265</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08488957573964795</v>
+        <v>-0.07728545961473436</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1887060477126037</v>
+        <v>0.1545461510714393</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1550245897672703</v>
+        <v>-0.1555901676955581</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06483710424971045</v>
+        <v>-0.0726414736784895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08693925344883455</v>
+        <v>0.07823376325535687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.08174506306817653</v>
+        <v>-0.09395285281382849</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0205428845043546</v>
+        <v>-0.02212204489956192</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1767095392755905</v>
+        <v>0.165121646108242</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3512517836761513</v>
+        <v>0.3999480349029597</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4136824341845444</v>
+        <v>0.4055599541021798</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7839767446080755</v>
+        <v>0.7641447892240195</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1885903983468409</v>
+        <v>0.1886393477068387</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2938679323540871</v>
+        <v>0.279422818402032</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4661912917979218</v>
+        <v>0.4363003444282488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1753562951368984</v>
+        <v>0.1862695738885567</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2766004591666545</v>
+        <v>0.2759868336001421</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4722466788955725</v>
+        <v>0.4858072607657269</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.4207235521661717</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.659004373221736</v>
+        <v>3.659004373221741</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.158858739820849</v>
@@ -1511,7 +1511,7 @@
         <v>-2.869157597172764</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.6805572719389891</v>
+        <v>0.6805572719389946</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.35245648172626</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.488020573149294</v>
+        <v>1.65005305374459</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.321618206128275</v>
+        <v>-2.344411315053557</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.654048248418823</v>
+        <v>1.403805865417887</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.247149009632571</v>
+        <v>1.007810058274502</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.866375297667523</v>
+        <v>-5.013096542797446</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.28483519245967</v>
+        <v>-1.211877386775301</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.776312592563829</v>
+        <v>1.754167982770443</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.102537994015963</v>
+        <v>-3.105621148043442</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6752716239890051</v>
+        <v>0.9208114844976087</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.55740385774485</v>
+        <v>5.430601145013339</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.310539261275435</v>
+        <v>1.366957354780884</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.788527566417664</v>
+        <v>5.583132241165647</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.573182186214011</v>
+        <v>5.257284219487553</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.9704854539355755</v>
+        <v>-0.9316643832320252</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.821863589227203</v>
+        <v>2.737327070464678</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.761889471520457</v>
+        <v>4.794818718642153</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2962544825444586</v>
+        <v>-0.3286601492865101</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.570203353028496</v>
+        <v>3.650472552497476</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.0245945512121142</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2138971540319382</v>
+        <v>0.2138971540319385</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.129506355518056</v>
@@ -1616,7 +1616,7 @@
         <v>-0.1176292371459006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02790137175147236</v>
+        <v>0.02790137175147259</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1611361338350257</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07838169950155989</v>
+        <v>0.09122079739023083</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1305119570661614</v>
+        <v>-0.1313534236633689</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.08863993906849355</v>
+        <v>0.0761748406290409</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04904609328306311</v>
+        <v>0.04025965864125411</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1938600077017109</v>
+        <v>-0.1974664236498273</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.05069076706041405</v>
+        <v>-0.04813247126198806</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08230710049588881</v>
+        <v>0.08092004212851474</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.144816108954255</v>
+        <v>-0.1433844161069473</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.03113523663700613</v>
+        <v>0.04314885782723728</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3406003114507229</v>
+        <v>0.3380116267924539</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0825652854037032</v>
+        <v>0.08224720270839</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3490946284840951</v>
+        <v>0.3395338648124119</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2376868143307482</v>
+        <v>0.2279844646830199</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04134892612945957</v>
+        <v>-0.04109064433123549</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1190875524526893</v>
+        <v>0.1152264699864266</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2344943609768379</v>
+        <v>0.239931268446021</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01449120956877626</v>
+        <v>-0.0154943319751499</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1786087218990403</v>
+        <v>0.1862313734309165</v>
       </c>
     </row>
     <row r="34">
